--- a/model_SizeDetect/new_datasets/test/size_data.xlsx
+++ b/model_SizeDetect/new_datasets/test/size_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieng\PycharmProjects\SizeDetect\new_datasets\train\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieng\PycharmProjects\SizeDetect\new_datasets\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,13 +394,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>278.34151684576273</v>
+        <v>268.79360111431231</v>
       </c>
       <c r="B2">
-        <v>180.8341781854304</v>
+        <v>124.0644993541666</v>
       </c>
       <c r="C2">
-        <v>137.80058055030099</v>
+        <v>168.60011862392031</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -408,13 +408,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>278.31277369175848</v>
+        <v>269.03159665734432</v>
       </c>
       <c r="B3">
-        <v>152.48606493709519</v>
+        <v>151.16877984557519</v>
       </c>
       <c r="C3">
-        <v>149.00335566691109</v>
+        <v>146.18481453283721</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -422,13 +422,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>278.09710534272023</v>
+        <v>268.36169622358551</v>
       </c>
       <c r="B4">
-        <v>182.4965753103329</v>
+        <v>148</v>
       </c>
       <c r="C4">
-        <v>130.1729618622854</v>
+        <v>147.4923726841493</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -436,13 +436,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>277.95323347642488</v>
+        <v>267.9888057363591</v>
       </c>
       <c r="B5">
-        <v>167.6305461424021</v>
+        <v>159.42396306703711</v>
       </c>
       <c r="C5">
-        <v>137.90576492663391</v>
+        <v>140.0642709615839</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -450,13 +450,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>277.01624501101008</v>
+        <v>269.8629281690985</v>
       </c>
       <c r="B6">
-        <v>170.60187572239639</v>
+        <v>156.73225577397909</v>
       </c>
       <c r="C6">
-        <v>148.0033783398203</v>
+        <v>140.60227594175001</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -464,13 +464,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>275</v>
+        <v>269.10592709934872</v>
       </c>
       <c r="B7">
-        <v>157.49285698088019</v>
+        <v>157.50872991678909</v>
       </c>
       <c r="C7">
-        <v>133.89921583041479</v>
+        <v>137.43725841270259</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -478,13 +478,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>277.34815665513258</v>
+        <v>268.46601274649271</v>
       </c>
       <c r="B8">
-        <v>154.56390264224049</v>
+        <v>155.24174696260019</v>
       </c>
       <c r="C8">
-        <v>159.62455951387929</v>
+        <v>141.8238343861849</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -492,13 +492,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>275</v>
+        <v>269.83328186122628</v>
       </c>
       <c r="B9">
-        <v>139.5170240508304</v>
+        <v>131.5750736271882</v>
       </c>
       <c r="C9">
-        <v>151.78932768808221</v>
+        <v>165.3420696616563</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -506,13 +506,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>277.70848024502237</v>
+        <v>267.02996086581737</v>
       </c>
       <c r="B10">
-        <v>129.72663566130129</v>
+        <v>167.76471619503309</v>
       </c>
       <c r="C10">
-        <v>171.74690681348531</v>
+        <v>140.66271716414411</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -520,13 +520,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>275.00727263110701</v>
+        <v>265.03391204345502</v>
       </c>
       <c r="B11">
-        <v>157.4357011608231</v>
+        <v>165.07030284669901</v>
       </c>
       <c r="C11">
-        <v>162.75441622272501</v>
+        <v>140.920390127199</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -534,13 +534,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>272.41512439657242</v>
+        <v>268.79360111431231</v>
       </c>
       <c r="B12">
-        <v>145.42695761102891</v>
+        <v>161.0372627685903</v>
       </c>
       <c r="C12">
-        <v>156.73225577397909</v>
+        <v>139.08630414242799</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -548,13 +548,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>272.76730009295471</v>
+        <v>268.5702887513807</v>
       </c>
       <c r="B13">
-        <v>166.48123017325409</v>
+        <v>137.87675656179329</v>
       </c>
       <c r="C13">
-        <v>135.09256086106299</v>
+        <v>161.9135571840728</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -562,13 +562,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>272.10659675943168</v>
+        <v>269.8629281690985</v>
       </c>
       <c r="B14">
-        <v>154.767567661962</v>
+        <v>128.08200498118379</v>
       </c>
       <c r="C14">
-        <v>148.31385639919151</v>
+        <v>174.7483905505284</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -576,13 +576,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>271.48848962709269</v>
+        <v>270.12959852633702</v>
       </c>
       <c r="B15">
-        <v>161.80543872194161</v>
+        <v>132.77424449041311</v>
       </c>
       <c r="C15">
-        <v>138.4088147481944</v>
+        <v>170.34377006512449</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -590,13 +590,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>271.18443908159628</v>
+        <v>270.44038160008569</v>
       </c>
       <c r="B16">
-        <v>160.55217220579729</v>
+        <v>150.63200191194429</v>
       </c>
       <c r="C16">
-        <v>150.63200191194429</v>
+        <v>145.0655024463087</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -604,13 +604,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>271.97426348829413</v>
+        <v>270.12959852633702</v>
       </c>
       <c r="B17">
-        <v>142.8040615668896</v>
+        <v>145.08618128546911</v>
       </c>
       <c r="C17">
-        <v>157.06368135250111</v>
+        <v>153.84407690905749</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -618,13 +618,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>273.07508125056012</v>
+        <v>269.67016891009649</v>
       </c>
       <c r="B18">
-        <v>164.63899902513981</v>
+        <v>129.0348790056394</v>
       </c>
       <c r="C18">
-        <v>133.52153384379611</v>
+        <v>173.29743217947569</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>273.79189177183463</v>
+        <v>268.68941177500841</v>
       </c>
       <c r="B19">
-        <v>129.5569372901351</v>
+        <v>144.10065926289161</v>
       </c>
       <c r="C19">
-        <v>176.70597047072289</v>
+        <v>155</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -646,13 +646,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>273.79189177183463</v>
+        <v>269.53663943887108</v>
       </c>
       <c r="B20">
-        <v>129.5569372901351</v>
+        <v>143.0559331170854</v>
       </c>
       <c r="C20">
-        <v>176.70597047072289</v>
+        <v>153.95129099815949</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -660,13 +660,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>275.23444551872501</v>
+        <v>267.8245694479877</v>
       </c>
       <c r="B21">
-        <v>155.76905982896599</v>
+        <v>142.35870187663281</v>
       </c>
       <c r="C21">
-        <v>145.11374848717821</v>
+        <v>155.6663097783204</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -674,13 +674,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>273.87953556262647</v>
+        <v>269.83328186122628</v>
       </c>
       <c r="B22">
-        <v>152.50245899656829</v>
+        <v>140.20698984002189</v>
       </c>
       <c r="C22">
-        <v>155.70806016388491</v>
+        <v>160.16241756417139</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -688,13 +688,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>275.23444551872501</v>
+        <v>269.13565352810468</v>
       </c>
       <c r="B23">
-        <v>152.8005235593125</v>
+        <v>143.45033983926291</v>
       </c>
       <c r="C23">
-        <v>144.75496537252181</v>
+        <v>152.3154621172782</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -702,13 +702,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>275.00727263110701</v>
+        <v>269.53663943887108</v>
       </c>
       <c r="B24">
-        <v>163.47782724271809</v>
+        <v>153.95129099815949</v>
       </c>
       <c r="C24">
-        <v>154.6932448428179</v>
+        <v>143.0559331170854</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -716,13 +716,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>277.06497432912738</v>
+        <v>271.26739575555342</v>
       </c>
       <c r="B25">
-        <v>148.55638660118251</v>
+        <v>141.98943622678411</v>
       </c>
       <c r="C25">
-        <v>152.6433752247375</v>
+        <v>155.55384919699031</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -730,13 +730,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>276.27884464793902</v>
+        <v>273.79189177183463</v>
       </c>
       <c r="B26">
-        <v>135.1036639029453</v>
+        <v>127.2360011946304</v>
       </c>
       <c r="C26">
-        <v>170.42593699317021</v>
+        <v>182.4965753103329</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -744,13 +744,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>276.3656997530627</v>
+        <v>275.7571395267945</v>
       </c>
       <c r="B27">
-        <v>149.78985279383909</v>
+        <v>128.08200498118379</v>
       </c>
       <c r="C27">
-        <v>151.8321441592656</v>
+        <v>180.62391868188439</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -758,13 +758,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>279.3313444638822</v>
+        <v>275.39426283058259</v>
       </c>
       <c r="B28">
-        <v>135.76818478568529</v>
+        <v>126.4634334501479</v>
       </c>
       <c r="C28">
-        <v>176.9547964876906</v>
+        <v>182.00274723201301</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -772,13 +772,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>279.3313444638822</v>
+        <v>274.5359721420856</v>
       </c>
       <c r="B29">
-        <v>133.5440002396214</v>
+        <v>131.18688958886099</v>
       </c>
       <c r="C29">
-        <v>175.7270610919104</v>
+        <v>169.79988221432899</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -786,13 +786,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>279.60329039551732</v>
+        <v>276.52486325826112</v>
       </c>
       <c r="B30">
-        <v>123.1300125883206</v>
+        <v>125.7179382586272</v>
       </c>
       <c r="C30">
-        <v>198.07321878537741</v>
+        <v>184.16568627190031</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -800,13 +800,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>278.95877831679718</v>
+        <v>276.92959394040929</v>
       </c>
       <c r="B31">
-        <v>173.95401691251629</v>
+        <v>126.873953197652</v>
       </c>
       <c r="C31">
-        <v>139.80700983856281</v>
+        <v>182.4965753103329</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -814,13 +814,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>279.01612856607409</v>
+        <v>275.04545078950127</v>
       </c>
       <c r="B32">
-        <v>199.6121238802894</v>
+        <v>128.31601614763451</v>
       </c>
       <c r="C32">
-        <v>122.0040982918197</v>
+        <v>179.24564150907551</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -828,1373 +828,2577 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>314.23876272668838</v>
+        <v>275.39426283058259</v>
       </c>
       <c r="B33">
-        <v>195.14353691577901</v>
+        <v>130.92364186807521</v>
       </c>
       <c r="C33">
-        <v>147.05441169852739</v>
+        <v>179.7247896090019</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>311.0064308016797</v>
+        <v>274.79810770818642</v>
       </c>
       <c r="B34">
-        <v>182.12358441453981</v>
+        <v>128.08200498118379</v>
       </c>
       <c r="C34">
-        <v>175.27692375210151</v>
+        <v>181.01104938649459</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>314.22603329450601</v>
+        <v>275.49591648516309</v>
       </c>
       <c r="B35">
-        <v>189.01058171435801</v>
+        <v>169.85876486069239</v>
       </c>
       <c r="C35">
-        <v>164.17368851311099</v>
+        <v>129.52991932368371</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>313.02555806195761</v>
+        <v>268.9107658685312</v>
       </c>
       <c r="B36">
-        <v>189.1798086477518</v>
+        <v>187.04277585621961</v>
       </c>
       <c r="C36">
-        <v>167.38578195294841</v>
+        <v>138.39797686382559</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>312.54119728445397</v>
+        <v>269.13565352810468</v>
       </c>
       <c r="B37">
-        <v>177.77513886930311</v>
+        <v>174.1522322567242</v>
       </c>
       <c r="C37">
-        <v>163.61540269791229</v>
+        <v>113.81124724736129</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>313.43579884882331</v>
+        <v>269.49211491247752</v>
       </c>
       <c r="B38">
-        <v>198.11360377318869</v>
+        <v>190.60167890131501</v>
       </c>
       <c r="C38">
-        <v>157.49603169603989</v>
+        <v>130.86252328302399</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>315.17931404202272</v>
+        <v>268.46415030688922</v>
       </c>
       <c r="B39">
-        <v>160.7233648229155</v>
+        <v>185.88437266214709</v>
       </c>
       <c r="C39">
-        <v>179.35997323817821</v>
+        <v>139.52060779684129</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>313.43579884882331</v>
+        <v>271.59712811441881</v>
       </c>
       <c r="B40">
-        <v>184.6997563615069</v>
+        <v>162.04937519163721</v>
       </c>
       <c r="C40">
-        <v>152.48606493709519</v>
+        <v>125.2397700413092</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>314.21330334662792</v>
+        <v>273.26360899322111</v>
       </c>
       <c r="B41">
-        <v>163.63679292872979</v>
+        <v>172.69916039170539</v>
       </c>
       <c r="C41">
-        <v>176.30938715791621</v>
+        <v>146.8128059809498</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>313.10221973023442</v>
+        <v>274.71075697904507</v>
       </c>
       <c r="B42">
-        <v>151.71354586852161</v>
+        <v>191.37659209004639</v>
       </c>
       <c r="C42">
-        <v>183.52111595127141</v>
+        <v>126.1784450688785</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>316.50908359792771</v>
+        <v>273.59276306218328</v>
       </c>
       <c r="B43">
-        <v>168.5734261382855</v>
+        <v>179.90275150758541</v>
       </c>
       <c r="C43">
-        <v>185.27007313648909</v>
+        <v>140.66271716414411</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>313.51236020291128</v>
+        <v>275.11633902769199</v>
       </c>
       <c r="B44">
-        <v>182.64993840677849</v>
+        <v>183.80696395947569</v>
       </c>
       <c r="C44">
-        <v>158.6600138661282</v>
+        <v>133.96268137059661</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>312.46439797199298</v>
+        <v>275.39426283058259</v>
       </c>
       <c r="B45">
-        <v>179.04468715937929</v>
+        <v>185.27007313648909</v>
       </c>
       <c r="C45">
-        <v>157.8131806916013</v>
+        <v>128.86038956948721</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>313.51236020291128</v>
+        <v>271.45902084845147</v>
       </c>
       <c r="B46">
-        <v>165.13025161974409</v>
+        <v>180.6017718628475</v>
       </c>
       <c r="C46">
-        <v>181.66452598127131</v>
+        <v>136.8539367354845</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>307.00651458886023</v>
+        <v>273.00183149568801</v>
       </c>
       <c r="B47">
-        <v>175.8408371226661</v>
+        <v>152.48606493709519</v>
       </c>
       <c r="C47">
-        <v>153.2351134694656</v>
+        <v>146.8128059809498</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>308.13308812913942</v>
+        <v>271.26555254952672</v>
       </c>
       <c r="B48">
-        <v>189.51780918953239</v>
+        <v>163.13491349187029</v>
       </c>
       <c r="C48">
-        <v>147.80054127099811</v>
+        <v>152.68922686293229</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>309.22160338501578</v>
+        <v>273.96715131562758</v>
       </c>
       <c r="B49">
-        <v>173.36666346215469</v>
+        <v>150.57224179774971</v>
       </c>
       <c r="C49">
-        <v>165.6804152578089</v>
+        <v>145.3616180427282</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>308.76852171165382</v>
+        <v>275.03391204345502</v>
       </c>
       <c r="B50">
-        <v>161.97839362087771</v>
+        <v>152.07030284669901</v>
       </c>
       <c r="C50">
-        <v>182.46369501903661</v>
+        <v>145.920390127199</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>309.85480470697883</v>
+        <v>273.79189177183463</v>
       </c>
       <c r="B51">
-        <v>168.81350656863921</v>
+        <v>164.7573974060042</v>
       </c>
       <c r="C51">
-        <v>172.75416058665559</v>
+        <v>145.3994497926316</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>308.80738333142227</v>
+        <v>273.06592610576661</v>
       </c>
       <c r="B52">
-        <v>158.38244852255571</v>
+        <v>165.7226598869328</v>
       </c>
       <c r="C52">
-        <v>181.8378398463862</v>
+        <v>127.9101246969918</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>309.02588888311612</v>
+        <v>273.25080054777521</v>
       </c>
       <c r="B53">
-        <v>186.33571852975481</v>
+        <v>145.6021977856104</v>
       </c>
       <c r="C53">
-        <v>146.81961721786359</v>
+        <v>150.95032295427529</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>307.10421683851882</v>
+        <v>273.79189177183463</v>
       </c>
       <c r="B54">
-        <v>185.310550158376</v>
+        <v>166.41213898030401</v>
       </c>
       <c r="C54">
-        <v>146.68674105044391</v>
+        <v>143.54441821262159</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>307.32718721258618</v>
+        <v>271.02951868754081</v>
       </c>
       <c r="B55">
-        <v>187.86431273661319</v>
+        <v>150.57224179774971</v>
       </c>
       <c r="C55">
-        <v>161.1241757155021</v>
+        <v>135.76818478568529</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>307.00651458886023</v>
+        <v>271.02951868754081</v>
       </c>
       <c r="B56">
-        <v>191.26160095534081</v>
+        <v>164.24676556937129</v>
       </c>
       <c r="C56">
-        <v>168.90825912311101</v>
+        <v>151.71684151734769</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>307.40526996133298</v>
+        <v>272.03391204345502</v>
       </c>
       <c r="B57">
-        <v>188.90473789717399</v>
+        <v>163.07030284669901</v>
       </c>
       <c r="C57">
-        <v>159.1257364476281</v>
+        <v>149.920390127199</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>309.22160338501578</v>
+        <v>273.25080054777521</v>
       </c>
       <c r="B58">
-        <v>190.2761151589973</v>
+        <v>137.9275171965333</v>
       </c>
       <c r="C58">
-        <v>151.71354586852161</v>
+        <v>157.94302770302971</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>315.93986769637041</v>
+        <v>273.25080054777521</v>
       </c>
       <c r="B59">
-        <v>188.5338165953259</v>
+        <v>150</v>
       </c>
       <c r="C59">
-        <v>157.16551784663201</v>
+        <v>148.51935900750451</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>316.62280397975132</v>
+        <v>273.42640691783959</v>
       </c>
       <c r="B60">
-        <v>199.81241202688079</v>
+        <v>160.22796260328599</v>
       </c>
       <c r="C60">
-        <v>147.80054127099811</v>
+        <v>138.2208377922808</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>316.21827904155072</v>
+        <v>271.00737997331362</v>
       </c>
       <c r="B61">
-        <v>176.64653973401241</v>
+        <v>166.48123017325409</v>
       </c>
       <c r="C61">
-        <v>170.58135888777531</v>
+        <v>120.93386622447829</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>318.5121661726597</v>
+        <v>273.07508125056012</v>
       </c>
       <c r="B62">
-        <v>160.3652081967906</v>
+        <v>167.90473489452279</v>
       </c>
       <c r="C62">
-        <v>197.5170878683665</v>
+        <v>133.843191832831</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>315.00634914236252</v>
+        <v>274.14229881577933</v>
       </c>
       <c r="B63">
-        <v>146.93195704134621</v>
+        <v>140.2925514772613</v>
       </c>
       <c r="C63">
-        <v>188.5099466871709</v>
+        <v>158.80806024884251</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>318.28603488057718</v>
+        <v>274.08392875176031</v>
       </c>
       <c r="B64">
-        <v>170.42593699317021</v>
+        <v>147.2582765076381</v>
       </c>
       <c r="C64">
-        <v>186.19613314996641</v>
+        <v>164.2589419179364</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>318.47753975778699</v>
+        <v>273.79189177183463</v>
       </c>
       <c r="B65">
-        <v>170.42058712229601</v>
+        <v>159.65587994182991</v>
       </c>
       <c r="C65">
-        <v>183.56554957709801</v>
+        <v>131.93938001976511</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>339.47753975778721</v>
+        <v>303.59512512555273</v>
       </c>
       <c r="B66">
-        <v>190.42058712229621</v>
+        <v>167.0748335327616</v>
       </c>
       <c r="C66">
-        <v>173.56554957709781</v>
+        <v>170.4699386988803</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>338.54098717880532</v>
+        <v>303.87168344549639</v>
       </c>
       <c r="B67">
-        <v>219.64744478368061</v>
+        <v>168.07736313971611</v>
       </c>
       <c r="C67">
-        <v>149.93665329064811</v>
+        <v>169.72919607421699</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>338.42281246984521</v>
+        <v>304.96229275108749</v>
       </c>
       <c r="B68">
-        <v>207.18349355100659</v>
+        <v>188.4303584882224</v>
       </c>
       <c r="C68">
-        <v>169.2601547913743</v>
+        <v>142.3376267892647</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>338.54098717880532</v>
+        <v>304.58168034207182</v>
       </c>
       <c r="B69">
-        <v>205</v>
+        <v>159.5054857990784</v>
       </c>
       <c r="C69">
-        <v>180.01388835309351</v>
+        <v>182.16476058777121</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>336.82339586198577</v>
+        <v>304.58168034207182</v>
       </c>
       <c r="B70">
-        <v>216.8317319951118</v>
+        <v>163.37074401495511</v>
       </c>
       <c r="C70">
-        <v>153.44705927452631</v>
+        <v>167.04490414256881</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>335.27600570276422</v>
+        <v>304.96229275108749</v>
       </c>
       <c r="B71">
-        <v>195.6016359849784</v>
+        <v>168.90825912311101</v>
       </c>
       <c r="C71">
-        <v>172.2614292289484</v>
+        <v>165.9397481015323</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>340.48494827231349</v>
+        <v>305.25071662487551</v>
       </c>
       <c r="B72">
-        <v>173.40415219942111</v>
+        <v>162.92943257741979</v>
       </c>
       <c r="C72">
-        <v>197.94191067078239</v>
+        <v>170.88007490635059</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>341.47035010378278</v>
+        <v>305.01475374151988</v>
       </c>
       <c r="B73">
-        <v>191.40010449317941</v>
+        <v>156.23699945915499</v>
       </c>
       <c r="C73">
-        <v>182.78949641595929</v>
+        <v>184.6943420898431</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>341.02345960358798</v>
+        <v>305.25071662487551</v>
       </c>
       <c r="B74">
-        <v>173.56554957709781</v>
+        <v>158.37297749300541</v>
       </c>
       <c r="C74">
-        <v>199.84994370777289</v>
+        <v>179.68861956172961</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>338.35188783277101</v>
+        <v>305.01475374151988</v>
       </c>
       <c r="B75">
-        <v>175.5477143115227</v>
+        <v>158.927656498169</v>
       </c>
       <c r="C75">
-        <v>195.63486396856771</v>
+        <v>177.77513886930311</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>340.23815188776229</v>
+        <v>304.96229275108749</v>
       </c>
       <c r="B76">
-        <v>178.84350701101789</v>
+        <v>159.02829936838279</v>
       </c>
       <c r="C76">
-        <v>195.5326059765992</v>
+        <v>177.53872816937721</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>338.82443831577439</v>
+        <v>305.01475374151988</v>
       </c>
       <c r="B77">
-        <v>182.4527336051724</v>
+        <v>191.88017094009481</v>
       </c>
       <c r="C77">
-        <v>192.39802493788761</v>
+        <v>138.57849761055999</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>335.03391204345502</v>
+        <v>305.761344842673</v>
       </c>
       <c r="B78">
-        <v>186.07030284669901</v>
+        <v>159.5054857990784</v>
       </c>
       <c r="C78">
-        <v>165.920390127199</v>
+        <v>179.1200714604592</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>339.37737107827331</v>
+        <v>305.01475374151988</v>
       </c>
       <c r="B79">
-        <v>199.24858845171269</v>
+        <v>186.79668091269721</v>
       </c>
       <c r="C79">
-        <v>167.26326554267681</v>
+        <v>152.46311029229329</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>341.7864830563081</v>
+        <v>305.86598372489868</v>
       </c>
       <c r="B80">
-        <v>195</v>
+        <v>152.55490814785341</v>
       </c>
       <c r="C80">
-        <v>181.46349495146401</v>
+        <v>186.89301752607031</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>341.02345960358798</v>
+        <v>305.86598372489868</v>
       </c>
       <c r="B81">
-        <v>187.5526592720029</v>
+        <v>192.7511348864125</v>
       </c>
       <c r="C81">
-        <v>179.56892826989861</v>
+        <v>147.59742545180109</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>341.23598872334668</v>
+        <v>306.03594560116619</v>
       </c>
       <c r="B82">
-        <v>179.62182495454161</v>
+        <v>171.73234989366449</v>
       </c>
       <c r="C82">
-        <v>194.8589233265954</v>
+        <v>162.28986413205229</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>343.00145772284992</v>
+        <v>306.78005150270121</v>
       </c>
       <c r="B83">
-        <v>189.5283619936605</v>
+        <v>167.6305461424021</v>
       </c>
       <c r="C83">
-        <v>186.26057016985641</v>
+        <v>167.0748335327616</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>341.7864830563081</v>
+        <v>308.76852171165382</v>
       </c>
       <c r="B84">
-        <v>185.36720314014559</v>
+        <v>172.0697532978995</v>
       </c>
       <c r="C84">
-        <v>191.81501505356661</v>
+        <v>171.18995297621879</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>341.05278183882331</v>
+        <v>304.79173217133041</v>
       </c>
       <c r="B85">
-        <v>186.60117898877269</v>
+        <v>175.19132398609241</v>
       </c>
       <c r="C85">
-        <v>178.46288129468269</v>
+        <v>163.37074401495511</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>342.24260401066368</v>
+        <v>305.01475374151988</v>
       </c>
       <c r="B86">
-        <v>188.36666371733611</v>
+        <v>170.14111789923089</v>
       </c>
       <c r="C86">
-        <v>187.92551716038989</v>
+        <v>165.6804152578089</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>342.06724485106719</v>
+        <v>306.57136200238932</v>
       </c>
       <c r="B87">
-        <v>190.18412131405711</v>
+        <v>157</v>
       </c>
       <c r="C87">
-        <v>185.39687160251651</v>
+        <v>181.2318956475377</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>342.47627655065389</v>
+        <v>309.99677417676457</v>
       </c>
       <c r="B88">
-        <v>174.62244987400669</v>
+        <v>148.55638660118251</v>
       </c>
       <c r="C88">
-        <v>204.2473990042468</v>
+        <v>201.51674868357719</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>342.12570789111999</v>
+        <v>310.17736861350801</v>
       </c>
       <c r="B89">
-        <v>182.4965753103329</v>
+        <v>167.6931721925493</v>
       </c>
       <c r="C89">
-        <v>189.70766985021979</v>
+        <v>178.87705274852891</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>339.0235979987234</v>
+        <v>305.98365969443529</v>
       </c>
       <c r="B90">
-        <v>179.33488227336031</v>
+        <v>170.46113926640291</v>
       </c>
       <c r="C90">
-        <v>181.6480112745526</v>
+        <v>178.66449003649271</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>340.50844336080712</v>
+        <v>306.41475160311722</v>
       </c>
       <c r="B91">
-        <v>192.1067411623028</v>
+        <v>155.42522317822159</v>
       </c>
       <c r="C91">
-        <v>181.46349495146401</v>
+        <v>174.65680633745711</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>342.06724485106719</v>
+        <v>308.60006480880719</v>
       </c>
       <c r="B92">
-        <v>192.9248558377069</v>
+        <v>177.22866585290319</v>
       </c>
       <c r="C92">
-        <v>183.19934497699501</v>
+        <v>166.337007307454</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>342.24260401066368</v>
+        <v>302.94884056553178</v>
       </c>
       <c r="B93">
-        <v>177.77513886930311</v>
+        <v>152.63354808167171</v>
       </c>
       <c r="C93">
-        <v>195.8621964545481</v>
+        <v>169.4254998517047</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>341.01319622560061</v>
+        <v>311.0064308016797</v>
       </c>
       <c r="B94">
-        <v>185.44001725625461</v>
+        <v>138.65424623862049</v>
       </c>
       <c r="C94">
-        <v>183.9619525880284</v>
+        <v>197.9595918363139</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>283.00706704957031</v>
+        <v>308.01623333843952</v>
       </c>
       <c r="B95">
-        <v>157.30543537970959</v>
+        <v>149.56269588369949</v>
       </c>
       <c r="C95">
-        <v>147.8512766262098</v>
+        <v>197.06090429103381</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>283.98943642325861</v>
+        <v>310.03391204345502</v>
       </c>
       <c r="B96">
-        <v>147.4347313220328</v>
+        <v>150.07030284669901</v>
       </c>
       <c r="C96">
-        <v>167.37084572887841</v>
+        <v>195.920390127199</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>284.10209432526187</v>
+        <v>309.22160338501578</v>
       </c>
       <c r="B97">
-        <v>167.28717822953439</v>
+        <v>150.57224179774971</v>
       </c>
       <c r="C97">
-        <v>145.9623239058628</v>
+        <v>182.0164827701052</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>283.52424940382082</v>
+        <v>311.16073017011638</v>
       </c>
       <c r="B98">
-        <v>152.50245899656829</v>
+        <v>190.42058712229621</v>
       </c>
       <c r="C98">
-        <v>161.80543872194161</v>
+        <v>144.90341610879989</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>283.42547521350298</v>
+        <v>309.03391204345502</v>
       </c>
       <c r="B99">
-        <v>160.01249951175689</v>
+        <v>176.07030284669901</v>
       </c>
       <c r="C99">
-        <v>155.59562975867931</v>
+        <v>167.920390127199</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>283.21370023358679</v>
+        <v>309.91934434623471</v>
       </c>
       <c r="B100">
-        <v>168.6683135624472</v>
+        <v>177.04519197086381</v>
       </c>
       <c r="C100">
-        <v>152.12166183683371</v>
+        <v>168.00297616411439</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>283</v>
+        <v>308.76852171165382</v>
       </c>
       <c r="B101">
-        <v>174.00287353949071</v>
+        <v>159.3988707613702</v>
       </c>
       <c r="C101">
-        <v>152.32202729743321</v>
+        <v>174.88853593074651</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>295.33201655086441</v>
+        <v>309.00647242412248</v>
       </c>
       <c r="B102">
-        <v>178.61970775925039</v>
+        <v>176.70597047072289</v>
       </c>
       <c r="C102">
-        <v>157.00318468107579</v>
+        <v>175.025712396779</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>295.65182225043031</v>
+        <v>309.46728421595708</v>
       </c>
       <c r="B103">
-        <v>181.47451611727749</v>
+        <v>202.56603861457131</v>
       </c>
       <c r="C103">
-        <v>150.96025967121281</v>
+        <v>151.15885683611131</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>295.08303916016592</v>
+        <v>309.7256850827842</v>
       </c>
       <c r="B104">
-        <v>173.95401691251629</v>
+        <v>171.9680202828421</v>
       </c>
       <c r="C104">
-        <v>153.94154734833609</v>
+        <v>174.24408167854651</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>295.85469406450193</v>
+        <v>309.46728421595708</v>
       </c>
       <c r="B105">
-        <v>164.21023110634729</v>
+        <v>177.552809045647</v>
       </c>
       <c r="C105">
-        <v>162.26213359869271</v>
+        <v>166.68833192518309</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>295.58416737031098</v>
+        <v>333.15011631395242</v>
       </c>
       <c r="B106">
-        <v>165.9397481015323</v>
+        <v>211.85136298829889</v>
       </c>
       <c r="C106">
-        <v>156.77372228788849</v>
+        <v>176.70880000724361</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>295.78708558691329</v>
+        <v>335.0492501110844</v>
       </c>
       <c r="B107">
-        <v>185.06485349736181</v>
+        <v>199.85995096567001</v>
       </c>
       <c r="C107">
-        <v>136.9707998078423</v>
+        <v>173.92527130926089</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>295.38110975483858</v>
+        <v>334.32020579079568</v>
       </c>
       <c r="B108">
-        <v>165.9789143234766</v>
+        <v>198.08079159777199</v>
       </c>
       <c r="C108">
-        <v>161.92899678562819</v>
+        <v>174.61385970191481</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>295.38110975483858</v>
+        <v>335.5145302367693</v>
       </c>
       <c r="B109">
-        <v>165.9789143234766</v>
+        <v>181.04143172213369</v>
       </c>
       <c r="C109">
-        <v>161.92899678562819</v>
+        <v>183.19934497699501</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>295.78708558691329</v>
+        <v>334.26037755019672</v>
       </c>
       <c r="B110">
-        <v>151.48927354766741</v>
+        <v>188.48872645333461</v>
       </c>
       <c r="C110">
-        <v>184.6212338816963</v>
+        <v>179.73869922751749</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>330.311973746033</v>
+        <v>334.97761119215119</v>
       </c>
       <c r="B111">
-        <v>205.32169880458321</v>
+        <v>205.3411795037712</v>
       </c>
       <c r="C111">
-        <v>159.06288064787461</v>
+        <v>165.5566368346494</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>330.71135450721982</v>
+        <v>334.60723243827232</v>
       </c>
       <c r="B112">
-        <v>211.74749113035551</v>
+        <v>204.94145505485221</v>
       </c>
       <c r="C112">
-        <v>154.9870962370739</v>
+        <v>163.04907236779971</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>330.2756424564185</v>
+        <v>335.21634805003168</v>
       </c>
       <c r="B113">
-        <v>179.07540311276699</v>
+        <v>170.32909322837361</v>
       </c>
       <c r="C113">
-        <v>184.93782739072071</v>
+        <v>194.13912537147169</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>330.10604356782079</v>
+        <v>333.72593546201949</v>
       </c>
       <c r="B114">
-        <v>187.42731924668831</v>
+        <v>187.36061485808591</v>
       </c>
       <c r="C114">
-        <v>177.12425017484199</v>
+        <v>169.9558766268469</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>331.83429599726429</v>
+        <v>335.29240969637232</v>
       </c>
       <c r="B115">
-        <v>182.98907071188711</v>
+        <v>218.96118377465899</v>
       </c>
       <c r="C115">
-        <v>179.836036433191</v>
+        <v>146.2908062729849</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>329.94848082693147</v>
+        <v>335</v>
       </c>
       <c r="B116">
-        <v>183.19934497699501</v>
+        <v>195.47889911701469</v>
       </c>
       <c r="C116">
-        <v>182.36227680087791</v>
+        <v>164.79381056338249</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>331.83429599726429</v>
+        <v>333.384162791216</v>
       </c>
       <c r="B117">
-        <v>178.02527910383961</v>
+        <v>194.2472651030125</v>
       </c>
       <c r="C117">
-        <v>187.04277585621961</v>
+        <v>163.68567438844491</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>321.37517016720511</v>
+        <v>335.76479863142288</v>
       </c>
       <c r="B118">
-        <v>191.76026700023129</v>
+        <v>191.60375779195979</v>
       </c>
       <c r="C118">
-        <v>163.93291310777099</v>
+        <v>171.84295155751951</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>321.1385993617086</v>
+        <v>335.35950858742621</v>
       </c>
       <c r="B119">
-        <v>166.76930173146371</v>
+        <v>214.11445537375559</v>
       </c>
       <c r="C119">
-        <v>193.45800577903199</v>
+        <v>160.3652081967906</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>321.81050324686419</v>
+        <v>335.5145302367693</v>
       </c>
       <c r="B120">
-        <v>189.38056922503961</v>
+        <v>216.98156603730189</v>
       </c>
       <c r="C120">
-        <v>153.45683432157719</v>
+        <v>166.36405861844079</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>319.22562553780051</v>
+        <v>335.76479863142288</v>
       </c>
       <c r="B121">
-        <v>191.6350698593553</v>
+        <v>187.92551716038989</v>
       </c>
       <c r="C121">
-        <v>154.767567661962</v>
+        <v>181.1573901335521</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>319.00626953086669</v>
+        <v>334.90595694911133</v>
       </c>
       <c r="B122">
-        <v>152.0690632574555</v>
+        <v>169.8381582566179</v>
       </c>
       <c r="C122">
-        <v>196.16319736382769</v>
+        <v>198.8793604173143</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>320.4652867316521</v>
+        <v>334.43983016381293</v>
       </c>
       <c r="B123">
-        <v>162.4838453508533</v>
+        <v>172.2614292289484</v>
       </c>
       <c r="C123">
-        <v>197.49683541768459</v>
+        <v>197.9595918363139</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>319.00626953086669</v>
+        <v>333.93711982946729</v>
       </c>
       <c r="B124">
-        <v>191.98176996788001</v>
+        <v>180.8341781854304</v>
       </c>
       <c r="C124">
-        <v>151.28780519261949</v>
+        <v>195</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>320.138599361709</v>
+        <v>334.83428737212682</v>
       </c>
       <c r="B125">
-        <v>165.769301731464</v>
+        <v>177.34147850968199</v>
       </c>
       <c r="C125">
-        <v>193.45800577903199</v>
+        <v>191.0183237283795</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>323.81050324686402</v>
+        <v>334.04490716069898</v>
       </c>
       <c r="B126">
-        <v>188.38056922504001</v>
+        <v>178.35358140502811</v>
       </c>
       <c r="C126">
-        <v>153.45683432157699</v>
+        <v>192.33304448274089</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>319.22562553780051</v>
+        <v>334.90595694911133</v>
       </c>
       <c r="B127">
-        <v>192.63506985935501</v>
+        <v>169.5435047414085</v>
       </c>
       <c r="C127">
-        <v>155.767567661962</v>
+        <v>208.568933448872</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>320.00626953086697</v>
+        <v>333.28966380612519</v>
       </c>
       <c r="B128">
-        <v>152.0690632574555</v>
+        <v>194.8589233265954</v>
       </c>
       <c r="C128">
-        <v>196.16319736382769</v>
+        <v>172.0697532978995</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>320.4652867316521</v>
+        <v>333.52960888053099</v>
       </c>
       <c r="B129">
-        <v>162.4838453508533</v>
+        <v>177.22866585290319</v>
       </c>
       <c r="C129">
-        <v>198.49683541768499</v>
+        <v>192.9248558377069</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>319.50626953086697</v>
+        <v>334.90595694911133</v>
       </c>
       <c r="B130">
-        <v>190.98176996788001</v>
+        <v>192.8159744419533</v>
       </c>
       <c r="C130">
-        <v>153.287805192619</v>
+        <v>175.86358349584489</v>
       </c>
       <c r="D130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>333.28966380612519</v>
+      </c>
+      <c r="B131">
+        <v>178.39843048636951</v>
+      </c>
+      <c r="C131">
+        <v>188.5099466871709</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>333.52960888053099</v>
+      </c>
+      <c r="B132">
+        <v>172.8872464931986</v>
+      </c>
+      <c r="C132">
+        <v>190.67249408344139</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>333.52960888053099</v>
+      </c>
+      <c r="B133">
+        <v>179.47144619688109</v>
+      </c>
+      <c r="C133">
+        <v>188.5099466871709</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>334.26037755019672</v>
+      </c>
+      <c r="B134">
+        <v>180.7595087402043</v>
+      </c>
+      <c r="C134">
+        <v>189.15602025841</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>333.0615558721841</v>
+      </c>
+      <c r="B135">
+        <v>185.21878954360969</v>
+      </c>
+      <c r="C135">
+        <v>181.51583952922681</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>334.63114021262282</v>
+      </c>
+      <c r="B136">
+        <v>181.7965896269784</v>
+      </c>
+      <c r="C136">
+        <v>188.48872645333461</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>334.63114021262282</v>
+      </c>
+      <c r="B137">
+        <v>171.18995297621879</v>
+      </c>
+      <c r="C137">
+        <v>196.7434878210712</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>333.0615558721841</v>
+      </c>
+      <c r="B138">
+        <v>178.01685313475241</v>
+      </c>
+      <c r="C138">
+        <v>186.01075237738269</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>335.0238797459071</v>
+      </c>
+      <c r="B139">
+        <v>182.16476058777121</v>
+      </c>
+      <c r="C139">
+        <v>175.11424842085239</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>335.0238797459071</v>
+      </c>
+      <c r="B140">
+        <v>182.16476058777121</v>
+      </c>
+      <c r="C140">
+        <v>175.11424842085239</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>338.28094832550062</v>
+      </c>
+      <c r="B141">
+        <v>184.88915598271299</v>
+      </c>
+      <c r="C141">
+        <v>184.54809671194121</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>337.26250903413501</v>
+      </c>
+      <c r="B142">
+        <v>185.310550158376</v>
+      </c>
+      <c r="C142">
+        <v>186.25251676151919</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>336.88276892711508</v>
+      </c>
+      <c r="B143">
+        <v>174.72263734273241</v>
+      </c>
+      <c r="C143">
+        <v>192.42141252989489</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>336.88276892711508</v>
+      </c>
+      <c r="B144">
+        <v>172.80046296234281</v>
+      </c>
+      <c r="C144">
+        <v>194.13912537147169</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>339.14746055366538</v>
+      </c>
+      <c r="B145">
+        <v>208.00240383226341</v>
+      </c>
+      <c r="C145">
+        <v>177.74701122663069</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>337.51148128619269</v>
+      </c>
+      <c r="B146">
+        <v>194.7331507473753</v>
+      </c>
+      <c r="C146">
+        <v>181.8378398463862</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>333.29416436535462</v>
+      </c>
+      <c r="B147">
+        <v>181.51583952922681</v>
+      </c>
+      <c r="C147">
+        <v>176.36609651517489</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>312.27231705676382</v>
+      </c>
+      <c r="B148">
+        <v>190.633155563244</v>
+      </c>
+      <c r="C148">
+        <v>164.8302156766168</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>305.01475374151988</v>
+      </c>
+      <c r="B149">
+        <v>186.79668091269721</v>
+      </c>
+      <c r="C149">
+        <v>152.46311029229329</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>303.0264014900352</v>
+      </c>
+      <c r="B150">
+        <v>201.1566553708825</v>
+      </c>
+      <c r="C150">
+        <v>124.3261838873855</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>303.16497159137629</v>
+      </c>
+      <c r="B151">
+        <v>190.28662590944219</v>
+      </c>
+      <c r="C151">
+        <v>170.58135888777531</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>304.38462510448852</v>
+      </c>
+      <c r="B152">
+        <v>182.00274723201301</v>
+      </c>
+      <c r="C152">
+        <v>142.70599146496971</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>305.98365969443529</v>
+      </c>
+      <c r="B153">
+        <v>154.9870962370739</v>
+      </c>
+      <c r="C153">
+        <v>189.274932307477</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>306.3755864947467</v>
+      </c>
+      <c r="B154">
+        <v>166.13849644197461</v>
+      </c>
+      <c r="C154">
+        <v>177.20045146669349</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>313.00159744001309</v>
+      </c>
+      <c r="B155">
+        <v>151.01324445226649</v>
+      </c>
+      <c r="C155">
+        <v>187.10692130437079</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>312.61797773000842</v>
+      </c>
+      <c r="B156">
+        <v>149.01342221424221</v>
+      </c>
+      <c r="C156">
+        <v>191.68985366993209</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>312.55399533520603</v>
+      </c>
+      <c r="B157">
+        <v>169.0976049505137</v>
+      </c>
+      <c r="C157">
+        <v>168.8075827680735</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>312.27231705676382</v>
+      </c>
+      <c r="B158">
+        <v>158.48343762046559</v>
+      </c>
+      <c r="C158">
+        <v>197.42593547961221</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>312.55399533520603</v>
+      </c>
+      <c r="B159">
+        <v>185.29975715040749</v>
+      </c>
+      <c r="C159">
+        <v>157.86703265723341</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>311.7081968765018</v>
+      </c>
+      <c r="B160">
+        <v>185.78482176970221</v>
+      </c>
+      <c r="C160">
+        <v>155.59562975867931</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>312.25950746134208</v>
+      </c>
+      <c r="B161">
+        <v>207.4728897952694</v>
+      </c>
+      <c r="C161">
+        <v>151.15885683611131</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>311.7081968765018</v>
+      </c>
+      <c r="B162">
+        <v>167.86899654194639</v>
+      </c>
+      <c r="C162">
+        <v>169.80577139779439</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>274.39023306233042</v>
+      </c>
+      <c r="B163">
+        <v>148.92951352905169</v>
+      </c>
+      <c r="C163">
+        <v>150.63200191194429</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>274.14229881577933</v>
+      </c>
+      <c r="B164">
+        <v>161.3071604114337</v>
+      </c>
+      <c r="C164">
+        <v>144.50605523645021</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>274.71075697904507</v>
+      </c>
+      <c r="B165">
+        <v>148.92951352905169</v>
+      </c>
+      <c r="C165">
+        <v>151.71684151734769</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>273.02930245671428</v>
+      </c>
+      <c r="B166">
+        <v>165.08179790637129</v>
+      </c>
+      <c r="C166">
+        <v>130.58713566044699</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>273.79189177183463</v>
+      </c>
+      <c r="B167">
+        <v>153.84407690905749</v>
+      </c>
+      <c r="C167">
+        <v>147.2752525036029</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>292.18145047213392</v>
+      </c>
+      <c r="B168">
+        <v>178.05897899291679</v>
+      </c>
+      <c r="C168">
+        <v>151.71354586852161</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>291.02749011047052</v>
+      </c>
+      <c r="B169">
+        <v>174.00287353949071</v>
+      </c>
+      <c r="C169">
+        <v>157.15597347857951</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>291.45497079308842</v>
+      </c>
+      <c r="B170">
+        <v>173.40415219942111</v>
+      </c>
+      <c r="C170">
+        <v>153.44380078712859</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>291.35888522576408</v>
+      </c>
+      <c r="B171">
+        <v>181.89282558693731</v>
+      </c>
+      <c r="C171">
+        <v>137.9311422413372</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>291.11166242526252</v>
+      </c>
+      <c r="B172">
+        <v>181.34221791960081</v>
+      </c>
+      <c r="C172">
+        <v>141.69333082400169</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>289.06227702694099</v>
+      </c>
+      <c r="B173">
+        <v>175.77542490348301</v>
+      </c>
+      <c r="C173">
+        <v>158.927656498169</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>291.49614062625261</v>
+      </c>
+      <c r="B174">
+        <v>173.1040149736568</v>
+      </c>
+      <c r="C174">
+        <v>152.73833834371769</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>290.82297020696291</v>
+      </c>
+      <c r="B175">
+        <v>175.85505395068981</v>
+      </c>
+      <c r="C175">
+        <v>150.96025967121281</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>291.49614062625261</v>
+      </c>
+      <c r="B176">
+        <v>191.37659209004639</v>
+      </c>
+      <c r="C176">
+        <v>138.0036231408437</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>292.22251795506787</v>
+      </c>
+      <c r="B177">
+        <v>142.8040615668896</v>
+      </c>
+      <c r="C177">
+        <v>187.5233318816621</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>286.12235145126289</v>
+      </c>
+      <c r="B178">
+        <v>138.4088147481944</v>
+      </c>
+      <c r="C178">
+        <v>169.29559947027559</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>292.48247810766372</v>
+      </c>
+      <c r="B179">
+        <v>151.82226450688981</v>
+      </c>
+      <c r="C179">
+        <v>171.73234989366449</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>293.46550052774518</v>
+      </c>
+      <c r="B180">
+        <v>154.8063306199071</v>
+      </c>
+      <c r="C180">
+        <v>168.07438829280329</v>
+      </c>
+      <c r="D180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>291.1528808031959</v>
+      </c>
+      <c r="B181">
+        <v>151.1621645783097</v>
+      </c>
+      <c r="C181">
+        <v>165.95180023127199</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>292.44144713087439</v>
+      </c>
+      <c r="B182">
+        <v>145.60906565183359</v>
+      </c>
+      <c r="C182">
+        <v>177.77513886930311</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>291.1528808031959</v>
+      </c>
+      <c r="B183">
+        <v>142.0880009008502</v>
+      </c>
+      <c r="C183">
+        <v>183.07648674802559</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>291.45497079308842</v>
+      </c>
+      <c r="B184">
+        <v>160.58953888718901</v>
+      </c>
+      <c r="C184">
+        <v>165.85837331892529</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>326.67108840544802</v>
+      </c>
+      <c r="B185">
+        <v>180.36906608396021</v>
+      </c>
+      <c r="C185">
+        <v>175.51353224181889</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>326.4751139060985</v>
+      </c>
+      <c r="B186">
+        <v>180.36906608396021</v>
+      </c>
+      <c r="C186">
+        <v>176.13914953808541</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>326.69557695199978</v>
+      </c>
+      <c r="B187">
+        <v>181.39735389470269</v>
+      </c>
+      <c r="C187">
+        <v>178.1600404131072</v>
+      </c>
+      <c r="D187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>325.02461445250572</v>
+      </c>
+      <c r="B188">
+        <v>182.12358441453981</v>
+      </c>
+      <c r="C188">
+        <v>184.6997563615069</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>319.02507738420809</v>
+      </c>
+      <c r="B189">
+        <v>187.80042598460739</v>
+      </c>
+      <c r="C189">
+        <v>181.4662503056698</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>326.69557695199978</v>
+      </c>
+      <c r="B190">
+        <v>182.4965753103329</v>
+      </c>
+      <c r="C190">
+        <v>178.73164241398331</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>325.59176893772968</v>
+      </c>
+      <c r="B191">
+        <v>181.6177304119837</v>
+      </c>
+      <c r="C191">
+        <v>174.90854753270349</v>
+      </c>
+      <c r="D191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>327.80787055835009</v>
+      </c>
+      <c r="B192">
+        <v>181.34221791960081</v>
+      </c>
+      <c r="C192">
+        <v>181.43042743707571</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>325.84965858505967</v>
+      </c>
+      <c r="B193">
+        <v>186.45374761586319</v>
+      </c>
+      <c r="C193">
+        <v>174.24408167854651</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>327.5759453928203</v>
+      </c>
+      <c r="B194">
+        <v>186.45374761586319</v>
+      </c>
+      <c r="C194">
+        <v>176.78518037437411</v>
+      </c>
+      <c r="D194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>318.1980515339464</v>
+      </c>
+      <c r="B195">
+        <v>177.77513886930311</v>
+      </c>
+      <c r="C195">
+        <v>174.45343218177169</v>
+      </c>
+      <c r="D195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>316.93847983480958</v>
+      </c>
+      <c r="B196">
+        <v>175.19132398609241</v>
+      </c>
+      <c r="C196">
+        <v>174.59095051004221</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>315.93986769637041</v>
+      </c>
+      <c r="B197">
+        <v>183.52111595127141</v>
+      </c>
+      <c r="C197">
+        <v>166.715326230074</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>317.40510392871761</v>
+      </c>
+      <c r="B198">
+        <v>202.56603861457131</v>
+      </c>
+      <c r="C198">
+        <v>158.34456100542261</v>
+      </c>
+      <c r="D198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>316.52172121356853</v>
+      </c>
+      <c r="B199">
+        <v>178.986032974643</v>
+      </c>
+      <c r="C199">
+        <v>169.0976049505137</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>316.1803282938393</v>
+      </c>
+      <c r="B200">
+        <v>146.50938536489741</v>
+      </c>
+      <c r="C200">
+        <v>207.2993005294519</v>
+      </c>
+      <c r="D200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>316.21827904155072</v>
+      </c>
+      <c r="B201">
+        <v>168.36270370839259</v>
+      </c>
+      <c r="C201">
+        <v>181.04143172213369</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>316.72385448525978</v>
+      </c>
+      <c r="B202">
+        <v>147.41099009232661</v>
+      </c>
+      <c r="C202">
+        <v>203.30272993740149</v>
+      </c>
+      <c r="D202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>317.12773451718158</v>
+      </c>
+      <c r="B203">
+        <v>177.22866585290319</v>
+      </c>
+      <c r="C203">
+        <v>172.80046296234281</v>
+      </c>
+      <c r="D203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>317.16557190212183</v>
+      </c>
+      <c r="B204">
+        <v>168.43396332094071</v>
+      </c>
+      <c r="C204">
+        <v>179.68861956172961</v>
+      </c>
+      <c r="D204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>316.50908359792771</v>
+      </c>
+      <c r="B205">
+        <v>169.0266251216062</v>
+      </c>
+      <c r="C205">
+        <v>183.52111595127141</v>
+      </c>
+      <c r="D205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>315.93986769637041</v>
+      </c>
+      <c r="B206">
+        <v>191.14915641979701</v>
+      </c>
+      <c r="C206">
+        <v>154.3243337908834</v>
+      </c>
+      <c r="D206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>281.44271175498568</v>
+      </c>
+      <c r="B207">
+        <v>160.7233648229155</v>
+      </c>
+      <c r="C207">
+        <v>150.04665940966501</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>281.44271175498568</v>
+      </c>
+      <c r="B208">
+        <v>160.7233648229155</v>
+      </c>
+      <c r="C208">
+        <v>150.04665940966501</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>281.44271175498568</v>
+      </c>
+      <c r="B209">
+        <v>160.7233648229155</v>
+      </c>
+      <c r="C209">
+        <v>150.04665940966501</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>575.03391204345508</v>
+      </c>
+      <c r="B210">
+        <v>256.07030284669872</v>
+      </c>
+      <c r="C210">
+        <v>401.9203901271992</v>
+      </c>
+      <c r="D210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>280.5031194122447</v>
+      </c>
+      <c r="B211">
+        <v>149.21461054467821</v>
+      </c>
+      <c r="C211">
+        <v>164.1371377842321</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>280.06070770459752</v>
+      </c>
+      <c r="B212">
+        <v>176.70597047072289</v>
+      </c>
+      <c r="C212">
+        <v>135.36986370680879</v>
+      </c>
+      <c r="D212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>280.17494534665298</v>
+      </c>
+      <c r="B213">
+        <v>139.70325694127541</v>
+      </c>
+      <c r="C213">
+        <v>169.33103672983279</v>
+      </c>
+      <c r="D213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>279.68911312383972</v>
+      </c>
+      <c r="B214">
+        <v>136.88316185711079</v>
+      </c>
+      <c r="C214">
+        <v>175.17134468856489</v>
+      </c>
+      <c r="D214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>281.30055101261348</v>
+      </c>
+      <c r="B215">
+        <v>144.3086968966181</v>
+      </c>
+      <c r="C215">
+        <v>170.2615634839525</v>
+      </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>279.7320146139873</v>
+      </c>
+      <c r="B216">
+        <v>167.83920876839241</v>
+      </c>
+      <c r="C216">
+        <v>136.61625086350449</v>
+      </c>
+      <c r="D216">
         <v>3</v>
       </c>
     </row>
